--- a/Data/case_01.xlsx
+++ b/Data/case_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AutomationApiTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD3753-8527-4DEC-AA01-864C152C2CBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319DEE6-5344-47CD-8746-BA5865C9B71B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="210">
   <si>
     <t>case编号</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>c7419ec935181499f22293e5c8ae61d7</t>
+  </si>
+  <si>
+    <t>8c1582a4fdf208ea002032da790749ee</t>
+  </si>
+  <si>
+    <t>98b5a605c0382657ccb3bae939d79550</t>
+  </si>
+  <si>
+    <t>5eacdfe401c38627846a264d7c7a595c</t>
+  </si>
+  <si>
+    <t>87b4fad75677586ce2d9a5d1a8b1ac18</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -999,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,10 +1109,80 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="189" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H3" s="2"/>
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="189" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H4" s="2"/>
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1110,7 +1192,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -3033,6 +3115,50 @@
         <v>202</v>
       </c>
       <c r="C174" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>846849</v>
+      </c>
+      <c r="B175" t="s">
+        <v>203</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>755099</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>459926</v>
+      </c>
+      <c r="B177" t="s">
+        <v>205</v>
+      </c>
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>685366</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3056,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -3070,7 +3196,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -3081,7 +3207,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>

--- a/Data/case_01.xlsx
+++ b/Data/case_01.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -3465,6 +3465,21 @@
         </is>
       </c>
       <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>129194</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ec80c7bf09671e191b2d3af68f56a958</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve"> 注册成功</t>
         </is>

--- a/Data/case_01.xlsx
+++ b/Data/case_01.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -3482,6 +3482,66 @@
       <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BB01361</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>姬存希yuan468777</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BB01361</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>姬存希yuan468777</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BB01361</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>姬存希yuan468777</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BB01361</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>姬存希yuan468777</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BB01361</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>姬存希yuan468777</t>
         </is>
       </c>
     </row>
